--- a/Entrega 6/Visualizaciones atómicas/Bases de datos/base tiktok 2023.xlsx
+++ b/Entrega 6/Visualizaciones atómicas/Bases de datos/base tiktok 2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coni Mora\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isifl\Desktop\GitHub\Proyecto-booktok\Entrega 6\Visualizaciones atómicas\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97644CCD-EE1E-4210-97F3-4ECD0F90E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1555E8-6CEC-40D7-BF3E-3ED9D8580514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C3821F78-06F2-43C0-B80A-49EDBA4F5D99}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9144" xr2:uid="{C3821F78-06F2-43C0-B80A-49EDBA4F5D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -371,8 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -717,9 +716,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -771,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -784,7 +783,7 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>99</v>
       </c>
       <c r="F3" t="s">
@@ -797,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -810,7 +809,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>99</v>
       </c>
       <c r="F4" t="s">
@@ -823,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -836,7 +835,7 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>99</v>
       </c>
       <c r="F5" t="s">
@@ -849,7 +848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -862,7 +861,7 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>99</v>
       </c>
       <c r="F6" t="s">
@@ -875,7 +874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -888,7 +887,7 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>99</v>
       </c>
       <c r="F7" t="s">
@@ -901,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -914,7 +913,7 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>99</v>
       </c>
       <c r="F8" t="s">
@@ -927,7 +926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -953,46 +952,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>549</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>549</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
@@ -1005,20 +1004,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>549</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
       <c r="F12" t="s">
@@ -1031,20 +1030,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>549</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>81</v>
       </c>
       <c r="F13" t="s">
@@ -1057,20 +1056,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>549</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
       <c r="F14" t="s">
@@ -1083,20 +1082,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>549</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>81</v>
       </c>
       <c r="F15" t="s">
@@ -1109,20 +1108,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>549</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
@@ -1135,20 +1134,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>549</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>81</v>
       </c>
       <c r="F17" t="s">
@@ -1161,20 +1160,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>549</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>81</v>
       </c>
       <c r="F18" t="s">
@@ -1187,20 +1186,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>549</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>81</v>
       </c>
       <c r="F19" t="s">
@@ -1213,20 +1212,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>549</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>81</v>
       </c>
       <c r="F20" t="s">
@@ -1239,7 +1238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1265,20 +1264,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>3564</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22" t="s">
@@ -1291,20 +1290,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>3564</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>82</v>
       </c>
       <c r="F23" t="s">
@@ -1317,20 +1316,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>3564</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>82</v>
       </c>
       <c r="F24" t="s">
@@ -1343,20 +1342,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>3564</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
       <c r="F25" t="s">
@@ -1369,20 +1368,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>3564</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>82</v>
       </c>
       <c r="F26" t="s">
@@ -1395,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1421,20 +1420,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>1776</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>72</v>
       </c>
       <c r="F28" t="s">
@@ -1447,20 +1446,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>1776</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>72</v>
       </c>
       <c r="F29" t="s">
@@ -1473,20 +1472,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>1776</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>72</v>
       </c>
       <c r="F30" t="s">
@@ -1499,20 +1498,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>1776</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>72</v>
       </c>
       <c r="F31" t="s">
@@ -1525,20 +1524,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1776</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>72</v>
       </c>
       <c r="F32" t="s">
@@ -1551,20 +1550,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>1776</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>72</v>
       </c>
       <c r="F33" t="s">
@@ -1577,20 +1576,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1776</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>72</v>
       </c>
       <c r="F34" t="s">
@@ -1603,17 +1602,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>4115</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>84</v>
       </c>
       <c r="E35" t="s">
@@ -1629,20 +1628,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>4115</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>85</v>
       </c>
       <c r="F36" t="s">
@@ -1655,20 +1654,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>4115</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>85</v>
       </c>
       <c r="F37" t="s">
@@ -1681,20 +1680,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>4115</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>85</v>
       </c>
       <c r="F38" t="s">
@@ -1707,20 +1706,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>4115</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>85</v>
       </c>
       <c r="F39" t="s">
@@ -1733,20 +1732,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>4115</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>85</v>
       </c>
       <c r="F40" t="s">
@@ -1759,20 +1758,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>4115</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>85</v>
       </c>
       <c r="F41" t="s">
@@ -1785,20 +1784,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>4115</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
@@ -1811,20 +1810,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>4115</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>85</v>
       </c>
       <c r="F43" t="s">
@@ -1837,20 +1836,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>4115</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>85</v>
       </c>
       <c r="F44" t="s">
@@ -1863,20 +1862,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>4115</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>85</v>
       </c>
       <c r="F45" t="s">
@@ -1889,20 +1888,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>4115</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>85</v>
       </c>
       <c r="F46" t="s">
@@ -1915,20 +1914,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>4115</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" t="s">
